--- a/Outputs/3. Prosumer percentage/Output Files/75/Output_0_24.xlsx
+++ b/Outputs/3. Prosumer percentage/Output Files/75/Output_0_24.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1618336.521382521</v>
+        <v>1606593.370980018</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5562152.400446147</v>
+        <v>5312247.587582169</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2921012.045488843</v>
+        <v>2231567.426506398</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7689629.991356682</v>
+        <v>7921292.151447087</v>
       </c>
     </row>
     <row r="11">
@@ -664,22 +664,22 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>184.7580389313643</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>254.489886823085</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>91.50962425787289</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -825,13 +825,13 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>216.4209542911653</v>
+        <v>21.69946940036108</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>388.9364112694136</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
-        <v>43.3871675861804</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
         <v>404.6410012660961</v>
@@ -916,7 +916,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,19 +949,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>106.7182697857035</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>212.9791755495843</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -1150,10 +1150,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>124.137244114841</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1198,7 +1198,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -1296,19 +1296,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1347,19 +1347,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>85.9297296657432</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128957</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -1387,10 +1387,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>204.2470842924216</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>226.9093473562862</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,22 +1581,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672384</v>
       </c>
     </row>
     <row r="14">
@@ -1621,7 +1621,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>135.4905879262803</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>172.1283631362387</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -1770,7 +1770,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>159.3017069803637</v>
@@ -1785,7 +1785,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>10.68457882832088</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1827,13 +1827,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,10 +1858,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,10 +1897,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>117.4784251967216</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.85798684944108</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
@@ -2064,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>15.0299058421969</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>205.2934183826711</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>97.56310642661438</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>124.0998600375574</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>138.8538703231272</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>355.4445328256823</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.9844192126098</v>
@@ -2377,7 +2377,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>37.78331767565417</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2481,22 +2481,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>79.56029504022841</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>105.7437518964927</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2560,7 +2560,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>304.274343829684</v>
       </c>
       <c r="E26" t="n">
         <v>410.1968133282722</v>
@@ -2569,13 +2569,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>47.64512042712314</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2614,7 +2614,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2721,19 +2721,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2766,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>118.675058326596</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G29" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>307.7994123985592</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>96.0851398248662</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,22 +3003,22 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>27.35334490128957</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672386</v>
       </c>
     </row>
     <row r="32">
@@ -3046,7 +3046,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>304.7162152260364</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>343.2559819443612</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3186,16 +3186,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>162.9848146305146</v>
@@ -3237,22 +3237,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S34" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>256.8454395874269</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>258.1454175604092</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>369.6581867526364</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3286,7 +3286,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>251.4066896505621</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V35" t="n">
         <v>346.3391791168841</v>
@@ -3435,16 +3435,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>76.43104772188485</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
         <v>279.9701659793371</v>
@@ -3486,13 +3486,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>187.5075228914158</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3505,7 +3505,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>97.46748333863208</v>
       </c>
       <c r="D38" t="n">
         <v>400.41929060787</v>
@@ -3556,10 +3556,10 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>165.9184445944652</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3666,16 +3666,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>20.52371678576089</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3714,7 +3714,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>106.053450371855</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3751,13 +3751,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>178.8846941420544</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
         <v>254.489886823085</v>
@@ -3805,10 +3805,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>355.4122150673247</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>29.06736062834963</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>228.2601210751795</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
         <v>279.9701659793371</v>
@@ -3966,7 +3966,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>406.1189678678446</v>
+        <v>270.8968189818693</v>
       </c>
       <c r="C44" t="n">
         <v>406.0233447798626</v>
@@ -3985,10 +3985,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.6410012660961</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>187.7898126023113</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>346.3391791168841</v>
@@ -4042,7 +4042,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
         <v>396.9273063213908</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>90.53682738164284</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
@@ -4146,7 +4146,7 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.577887163712</v>
@@ -4182,25 +4182,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>54.68688746169129</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2218.755112140477</v>
+        <v>670.4916575805562</v>
       </c>
       <c r="C2" t="n">
-        <v>1808.630521453747</v>
+        <v>260.3670668938263</v>
       </c>
       <c r="D2" t="n">
-        <v>1404.166591546807</v>
+        <v>73.74278514497341</v>
       </c>
       <c r="E2" t="n">
-        <v>989.8263760637043</v>
+        <v>63.44297370227418</v>
       </c>
       <c r="F2" t="n">
-        <v>568.7959640173918</v>
+        <v>46.45296569636579</v>
       </c>
       <c r="G2" t="n">
-        <v>160.067679910224</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H2" t="n">
-        <v>160.067679910224</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
-        <v>73.71591722729714</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>327.9013886950514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>438.3563450202853</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L2" t="n">
-        <v>1150.947744832523</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>1927.266335824277</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N2" t="n">
-        <v>2680.447352462895</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O2" t="n">
-        <v>3324.07820888</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>3324.07820888</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>3645.239215675292</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
-        <v>3685.795861364857</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>3550.514786158958</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>3328.308302105817</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>3071.247810365327</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V2" t="n">
-        <v>2721.410255701808</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W2" t="n">
-        <v>2721.410255701808</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="X2" t="n">
-        <v>2628.976291804966</v>
+        <v>1080.712837245046</v>
       </c>
       <c r="Y2" t="n">
-        <v>2628.976291804966</v>
+        <v>1080.712837245046</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>752.5467591138315</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C3" t="n">
-        <v>618.5516878627773</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D3" t="n">
-        <v>501.6545300821697</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E3" t="n">
-        <v>381.1617140744977</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F3" t="n">
-        <v>272.2018342570022</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G3" t="n">
-        <v>165.2117215713409</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H3" t="n">
-        <v>94.46450860705697</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I3" t="n">
-        <v>73.71591722729714</v>
+        <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>73.71591722729714</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>529.5221734925958</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="L3" t="n">
-        <v>529.5221734925958</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="M3" t="n">
-        <v>529.5221734925958</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>529.5221734925958</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1233.47926403849</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1770.360648393814</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2120.205113077797</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
-        <v>2120.205113077797</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S3" t="n">
-        <v>2012.215103192106</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T3" t="n">
-        <v>1852.873239379114</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U3" t="n">
-        <v>1655.522428517333</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V3" t="n">
-        <v>1441.810901510367</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W3" t="n">
-        <v>1228.577733246696</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X3" t="n">
-        <v>1052.251751385588</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y3" t="n">
-        <v>892.8497917494182</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>404.3039343426706</v>
+        <v>865.1454348405214</v>
       </c>
       <c r="C4" t="n">
-        <v>233.2105619043871</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D4" t="n">
-        <v>73.71591722729714</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E4" t="n">
-        <v>73.71591722729714</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F4" t="n">
-        <v>73.71591722729714</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G4" t="n">
-        <v>73.71591722729714</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>73.71591722729714</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
-        <v>73.71591722729714</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J4" t="n">
-        <v>87.79846663250765</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K4" t="n">
-        <v>242.3507943547456</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L4" t="n">
-        <v>502.2478946348062</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M4" t="n">
-        <v>791.5119510752995</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.35073346955</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O4" t="n">
-        <v>1331.911343796024</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P4" t="n">
-        <v>1537.586784045636</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q4" t="n">
-        <v>1603.114813848147</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1603.114813848147</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S4" t="n">
-        <v>1603.114813848147</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T4" t="n">
-        <v>1363.566074824849</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U4" t="n">
-        <v>1144.959050288319</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="V4" t="n">
-        <v>871.0733052278407</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="W4" t="n">
-        <v>592.0036407367151</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="X4" t="n">
-        <v>592.0036407367151</v>
+        <v>1277.580839845801</v>
       </c>
       <c r="Y4" t="n">
-        <v>592.0036407367151</v>
+        <v>1052.845141234566</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2066.106856587742</v>
+        <v>2082.073505856017</v>
       </c>
       <c r="C5" t="n">
-        <v>1655.982265901012</v>
+        <v>2075.989319209691</v>
       </c>
       <c r="D5" t="n">
-        <v>1251.518335994073</v>
+        <v>1683.124257321394</v>
       </c>
       <c r="E5" t="n">
-        <v>837.1781205109696</v>
+        <v>1268.784041838291</v>
       </c>
       <c r="F5" t="n">
-        <v>793.352698706747</v>
+        <v>847.7536297919787</v>
       </c>
       <c r="G5" t="n">
-        <v>384.6244145995792</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>73.71591722729714</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>73.71591722729714</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>187.9153826734129</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>726.0748837824524</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="L5" t="n">
-        <v>1438.66628359469</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="M5" t="n">
-        <v>1438.66628359469</v>
+        <v>558.6080202959273</v>
       </c>
       <c r="N5" t="n">
-        <v>2191.847300233308</v>
+        <v>1075.450954962253</v>
       </c>
       <c r="O5" t="n">
-        <v>2835.478156650413</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P5" t="n">
-        <v>3364.634854569565</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q5" t="n">
-        <v>3685.795861364857</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
-        <v>3685.795861364857</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>3685.795861364857</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>3463.589377311716</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>3206.528885571226</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V5" t="n">
-        <v>2856.691330907707</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W5" t="n">
-        <v>2472.931030042875</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X5" t="n">
-        <v>2072.287632211828</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y5" t="n">
-        <v>2072.287632211828</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>752.5467591138315</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C6" t="n">
-        <v>618.5516878627773</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D6" t="n">
-        <v>501.6545300821697</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E6" t="n">
-        <v>381.1617140744977</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F6" t="n">
-        <v>272.2018342570022</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G6" t="n">
-        <v>165.2117215713409</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H6" t="n">
-        <v>94.46450860705697</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I6" t="n">
-        <v>73.71591722729714</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>73.71591722729714</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K6" t="n">
-        <v>73.71591722729714</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>734.8040891465854</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M6" t="n">
-        <v>1577.781169841152</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N6" t="n">
-        <v>2120.205113077797</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.205113077797</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P6" t="n">
-        <v>2120.205113077797</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2120.205113077797</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
-        <v>2120.205113077797</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S6" t="n">
-        <v>2012.215103192106</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T6" t="n">
-        <v>1852.873239379114</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1655.522428517333</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1441.810901510367</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1228.577733246696</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
-        <v>1052.251751385588</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>892.8497917494182</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>457.3528399068322</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C7" t="n">
-        <v>349.556607800061</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>190.061963122971</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>190.061963122971</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>190.061963122971</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>190.061963122971</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H7" t="n">
-        <v>190.061963122971</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>73.71591722729714</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>87.79846663250765</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>242.3507943547456</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
-        <v>502.2478946348062</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M7" t="n">
-        <v>791.5119510752995</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N7" t="n">
-        <v>1072.35073346955</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O7" t="n">
-        <v>1331.911343796024</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P7" t="n">
-        <v>1537.586784045636</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q7" t="n">
-        <v>1603.114813848147</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1517.842095523547</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1517.842095523547</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1517.842095523547</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1235.043948069671</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V7" t="n">
-        <v>961.1582030091931</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W7" t="n">
-        <v>682.0885385180675</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X7" t="n">
-        <v>682.0885385180675</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y7" t="n">
-        <v>457.3528399068322</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1721.582801431951</v>
+        <v>2150.258151684062</v>
       </c>
       <c r="C8" t="n">
-        <v>1715.498614785625</v>
+        <v>1740.133560997332</v>
       </c>
       <c r="D8" t="n">
-        <v>1311.034684878685</v>
+        <v>1335.669631090393</v>
       </c>
       <c r="E8" t="n">
-        <v>1300.734873435986</v>
+        <v>921.3294156072894</v>
       </c>
       <c r="F8" t="n">
-        <v>879.7044613896738</v>
+        <v>500.299003560977</v>
       </c>
       <c r="G8" t="n">
-        <v>470.976177282506</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H8" t="n">
-        <v>160.067679910224</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I8" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J8" t="n">
-        <v>327.9013886950514</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K8" t="n">
-        <v>866.0608898040909</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L8" t="n">
-        <v>1578.652289616329</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M8" t="n">
-        <v>2354.970880608083</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N8" t="n">
-        <v>3108.151897246701</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O8" t="n">
-        <v>3108.151897246701</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P8" t="n">
-        <v>3637.308595165853</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q8" t="n">
-        <v>3645.239215675292</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R8" t="n">
-        <v>3685.795861364857</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S8" t="n">
-        <v>3550.514786158958</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T8" t="n">
-        <v>3328.308302105817</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U8" t="n">
-        <v>3071.247810365327</v>
+        <v>4095.65725775986</v>
       </c>
       <c r="V8" t="n">
-        <v>2721.410255701808</v>
+        <v>3745.819703096341</v>
       </c>
       <c r="W8" t="n">
-        <v>2337.649954836976</v>
+        <v>3362.059402231509</v>
       </c>
       <c r="X8" t="n">
-        <v>2337.649954836976</v>
+        <v>2961.416004400462</v>
       </c>
       <c r="Y8" t="n">
-        <v>1936.713281785066</v>
+        <v>2560.479331348552</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>752.5467591138315</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C9" t="n">
-        <v>618.5516878627773</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D9" t="n">
-        <v>501.6545300821697</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E9" t="n">
-        <v>381.1617140744977</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F9" t="n">
-        <v>272.2018342570022</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G9" t="n">
-        <v>165.2117215713409</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H9" t="n">
-        <v>94.46450860705697</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I9" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J9" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K9" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L9" t="n">
-        <v>734.8040891465854</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M9" t="n">
-        <v>734.8040891465854</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N9" t="n">
-        <v>1558.499220589267</v>
+        <v>1808.205892259994</v>
       </c>
       <c r="O9" t="n">
-        <v>1558.499220589267</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P9" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q9" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R9" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S9" t="n">
-        <v>2012.215103192106</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T9" t="n">
-        <v>1852.873239379114</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U9" t="n">
-        <v>1655.522428517333</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V9" t="n">
-        <v>1441.810901510367</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W9" t="n">
-        <v>1228.577733246696</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X9" t="n">
-        <v>1052.251751385588</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y9" t="n">
-        <v>892.8497917494182</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>528.4057266357111</v>
+        <v>1180.904569754946</v>
       </c>
       <c r="C10" t="n">
-        <v>357.3123541974276</v>
+        <v>1009.811197316662</v>
       </c>
       <c r="D10" t="n">
-        <v>357.3123541974276</v>
+        <v>850.3165526395721</v>
       </c>
       <c r="E10" t="n">
-        <v>357.3123541974276</v>
+        <v>689.4057375078917</v>
       </c>
       <c r="F10" t="n">
-        <v>357.3123541974276</v>
+        <v>524.7746116184829</v>
       </c>
       <c r="G10" t="n">
-        <v>190.061963122971</v>
+        <v>357.5242205440263</v>
       </c>
       <c r="H10" t="n">
-        <v>190.061963122971</v>
+        <v>207.916765349483</v>
       </c>
       <c r="I10" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J10" t="n">
-        <v>87.79846663250765</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K10" t="n">
-        <v>242.3507943547456</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L10" t="n">
-        <v>502.2478946348062</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M10" t="n">
-        <v>791.5119510752995</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N10" t="n">
-        <v>1072.35073346955</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O10" t="n">
-        <v>1331.911343796024</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P10" t="n">
-        <v>1537.586784045636</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q10" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R10" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S10" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T10" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U10" t="n">
-        <v>1320.316666394272</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V10" t="n">
-        <v>1233.518959661198</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W10" t="n">
-        <v>954.449295170072</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="X10" t="n">
-        <v>716.1054330297554</v>
+        <v>1593.339974760225</v>
       </c>
       <c r="Y10" t="n">
-        <v>716.1054330297554</v>
+        <v>1368.60427614899</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2132.40334945755</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C11" t="n">
-        <v>1722.27875877082</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D11" t="n">
-        <v>1317.814828863881</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E11" t="n">
-        <v>903.4746133807774</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F11" t="n">
-        <v>482.444201334465</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G11" t="n">
-        <v>73.71591722729714</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H11" t="n">
-        <v>73.71591722729714</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I11" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J11" t="n">
-        <v>73.71591722729714</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K11" t="n">
-        <v>611.8754183363367</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L11" t="n">
-        <v>1324.466818148575</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M11" t="n">
-        <v>2100.785409140329</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N11" t="n">
-        <v>2853.966425778947</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O11" t="n">
-        <v>3497.597282196052</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P11" t="n">
-        <v>3685.795861364857</v>
+        <v>4298.794253809469</v>
       </c>
       <c r="Q11" t="n">
-        <v>3685.795861364857</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R11" t="n">
-        <v>3685.795861364857</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S11" t="n">
-        <v>3550.514786158958</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T11" t="n">
-        <v>3344.204600004997</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="U11" t="n">
-        <v>3344.204600004997</v>
+        <v>4321.475480949967</v>
       </c>
       <c r="V11" t="n">
-        <v>3344.204600004997</v>
+        <v>3971.637926286448</v>
       </c>
       <c r="W11" t="n">
-        <v>3344.204600004997</v>
+        <v>3587.877625421616</v>
       </c>
       <c r="X11" t="n">
-        <v>2943.561202173949</v>
+        <v>3358.676264455671</v>
       </c>
       <c r="Y11" t="n">
-        <v>2542.624529122039</v>
+        <v>2957.739591403761</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>752.5467591138315</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C12" t="n">
-        <v>618.5516878627773</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D12" t="n">
-        <v>501.6545300821697</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E12" t="n">
-        <v>381.1617140744977</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F12" t="n">
-        <v>272.2018342570022</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G12" t="n">
-        <v>165.2117215713409</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H12" t="n">
-        <v>94.46450860705697</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I12" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J12" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K12" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L12" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M12" t="n">
-        <v>916.6929979218638</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="N12" t="n">
-        <v>1790.351090033482</v>
+        <v>492.9929482232712</v>
       </c>
       <c r="O12" t="n">
-        <v>2120.205113077797</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P12" t="n">
-        <v>2120.205113077797</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q12" t="n">
-        <v>2120.205113077797</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R12" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S12" t="n">
-        <v>2012.215103192106</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T12" t="n">
-        <v>1852.873239379114</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U12" t="n">
-        <v>1655.522428517333</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V12" t="n">
-        <v>1441.810901510367</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W12" t="n">
-        <v>1228.577733246696</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X12" t="n">
-        <v>1052.251751385588</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y12" t="n">
-        <v>892.8497917494182</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1163.049767528434</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C13" t="n">
-        <v>991.9563950901502</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D13" t="n">
-        <v>832.4617504130601</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E13" t="n">
-        <v>671.5509352813797</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F13" t="n">
-        <v>506.9198093919709</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G13" t="n">
-        <v>339.6694183175143</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H13" t="n">
-        <v>190.061963122971</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I13" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J13" t="n">
-        <v>87.79846663250765</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K13" t="n">
-        <v>242.3507943547456</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L13" t="n">
-        <v>502.2478946348062</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M13" t="n">
-        <v>791.5119510752995</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N13" t="n">
-        <v>1072.35073346955</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O13" t="n">
-        <v>1331.911343796024</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P13" t="n">
-        <v>1537.586784045636</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q13" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R13" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S13" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T13" t="n">
-        <v>1603.114813848147</v>
+        <v>1381.420877051361</v>
       </c>
       <c r="U13" t="n">
-        <v>1603.114813848147</v>
+        <v>1098.622729597485</v>
       </c>
       <c r="V13" t="n">
-        <v>1603.114813848147</v>
+        <v>824.7369845370074</v>
       </c>
       <c r="W13" t="n">
-        <v>1603.114813848147</v>
+        <v>545.6673200458818</v>
       </c>
       <c r="X13" t="n">
-        <v>1575.485172533713</v>
+        <v>307.3234579055651</v>
       </c>
       <c r="Y13" t="n">
-        <v>1350.749473922478</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2529.663609512759</v>
+        <v>2275.649307355618</v>
       </c>
       <c r="C14" t="n">
-        <v>2119.539018826029</v>
+        <v>1865.524716668889</v>
       </c>
       <c r="D14" t="n">
-        <v>1715.075088919089</v>
+        <v>1461.060786761949</v>
       </c>
       <c r="E14" t="n">
-        <v>1300.734873435986</v>
+        <v>1046.720571278846</v>
       </c>
       <c r="F14" t="n">
-        <v>879.7044613896738</v>
+        <v>625.6901592325335</v>
       </c>
       <c r="G14" t="n">
-        <v>470.976177282506</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H14" t="n">
-        <v>160.067679910224</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I14" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J14" t="n">
-        <v>327.9013886950514</v>
+        <v>263.7802573176947</v>
       </c>
       <c r="K14" t="n">
-        <v>866.0608898040909</v>
+        <v>801.9397584267342</v>
       </c>
       <c r="L14" t="n">
-        <v>1578.652289616329</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M14" t="n">
-        <v>2354.970880608083</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N14" t="n">
-        <v>3001.608359258187</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O14" t="n">
-        <v>3645.239215675292</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P14" t="n">
-        <v>3645.239215675292</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q14" t="n">
-        <v>3645.239215675292</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R14" t="n">
-        <v>3685.795861364857</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S14" t="n">
-        <v>3685.795861364857</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T14" t="n">
-        <v>3463.589377311716</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U14" t="n">
-        <v>3289.722343840768</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="V14" t="n">
-        <v>2939.884789177248</v>
+        <v>3871.210858767897</v>
       </c>
       <c r="W14" t="n">
-        <v>2939.884789177248</v>
+        <v>3487.450557903066</v>
       </c>
       <c r="X14" t="n">
-        <v>2939.884789177248</v>
+        <v>3086.807160072018</v>
       </c>
       <c r="Y14" t="n">
-        <v>2939.884789177248</v>
+        <v>2685.870487020108</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>752.5467591138315</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C15" t="n">
-        <v>618.5516878627773</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D15" t="n">
-        <v>501.6545300821697</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E15" t="n">
-        <v>381.1617140744977</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F15" t="n">
-        <v>272.2018342570022</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G15" t="n">
-        <v>165.2117215713409</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H15" t="n">
-        <v>94.46450860705697</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I15" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J15" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K15" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L15" t="n">
-        <v>542.5899304202851</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M15" t="n">
-        <v>542.5899304202851</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="N15" t="n">
-        <v>1416.248022531903</v>
+        <v>492.9929482232712</v>
       </c>
       <c r="O15" t="n">
-        <v>2120.205113077797</v>
+        <v>1196.950038769166</v>
       </c>
       <c r="P15" t="n">
-        <v>2120.205113077797</v>
+        <v>1758.655931257696</v>
       </c>
       <c r="Q15" t="n">
-        <v>2120.205113077797</v>
+        <v>2108.500395941679</v>
       </c>
       <c r="R15" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S15" t="n">
-        <v>2012.215103192106</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T15" t="n">
-        <v>1852.873239379114</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U15" t="n">
-        <v>1655.522428517333</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V15" t="n">
-        <v>1441.810901510367</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W15" t="n">
-        <v>1228.577733246696</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X15" t="n">
-        <v>1052.251751385588</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y15" t="n">
-        <v>892.8497917494182</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1163.049767528434</v>
+        <v>915.8563830491726</v>
       </c>
       <c r="C16" t="n">
-        <v>991.9563950901502</v>
+        <v>744.7630106108891</v>
       </c>
       <c r="D16" t="n">
-        <v>832.4617504130601</v>
+        <v>744.7630106108891</v>
       </c>
       <c r="E16" t="n">
-        <v>671.5509352813797</v>
+        <v>583.8521954792086</v>
       </c>
       <c r="F16" t="n">
-        <v>506.9198093919709</v>
+        <v>419.2210695897999</v>
       </c>
       <c r="G16" t="n">
-        <v>339.6694183175143</v>
+        <v>251.9706785153433</v>
       </c>
       <c r="H16" t="n">
-        <v>190.061963122971</v>
+        <v>102.3632233207999</v>
       </c>
       <c r="I16" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J16" t="n">
-        <v>87.79846663250765</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K16" t="n">
-        <v>242.3507943547456</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L16" t="n">
-        <v>502.2478946348062</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M16" t="n">
-        <v>791.5119510752995</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N16" t="n">
-        <v>1072.35073346955</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O16" t="n">
-        <v>1331.911343796024</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P16" t="n">
-        <v>1537.586784045636</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q16" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R16" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="S16" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="T16" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="U16" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="V16" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="W16" t="n">
-        <v>1603.114813848147</v>
+        <v>1341.899951583533</v>
       </c>
       <c r="X16" t="n">
-        <v>1575.485172533713</v>
+        <v>1103.556089443217</v>
       </c>
       <c r="Y16" t="n">
-        <v>1350.749473922478</v>
+        <v>1103.556089443217</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F17" t="n">
-        <v>452.2785793327262</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G17" t="n">
-        <v>93.2436976906228</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H17" t="n">
         <v>93.2436976906228</v>
@@ -5545,22 +5545,22 @@
         <v>4526.90380932524</v>
       </c>
       <c r="T17" t="n">
-        <v>4304.697325272099</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4408.238733368956</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L18" t="n">
-        <v>754.331869609911</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M18" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N18" t="n">
-        <v>1597.308950304478</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q18" t="n">
         <v>2139.732893541123</v>
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F19" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S19" t="n">
-        <v>1436.250826191383</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T19" t="n">
-        <v>1196.702087168085</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U19" t="n">
-        <v>913.9039397142094</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V19" t="n">
-        <v>640.0181946537314</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W19" t="n">
-        <v>640.0181946537314</v>
+        <v>275.6758118380055</v>
       </c>
       <c r="X19" t="n">
-        <v>401.6743325134148</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="Y19" t="n">
-        <v>176.9386339021794</v>
+        <v>260.4940887650794</v>
       </c>
     </row>
     <row r="20">
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2359.298219196301</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C20" t="n">
-        <v>1949.173628509571</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D20" t="n">
-        <v>1544.709698602632</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E20" t="n">
-        <v>1130.369483119528</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F20" t="n">
-        <v>709.339071073216</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G20" t="n">
-        <v>300.6107869660482</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H20" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583772</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4526.90380932524</v>
+        <v>4563.636292181024</v>
       </c>
       <c r="T20" t="n">
-        <v>4304.697325272099</v>
+        <v>4341.429808127883</v>
       </c>
       <c r="U20" t="n">
-        <v>4304.697325272099</v>
+        <v>4084.369316387393</v>
       </c>
       <c r="V20" t="n">
-        <v>3954.85977060858</v>
+        <v>3734.531761723874</v>
       </c>
       <c r="W20" t="n">
-        <v>3571.099469743748</v>
+        <v>3350.771460859042</v>
       </c>
       <c r="X20" t="n">
-        <v>3170.456071912701</v>
+        <v>2950.128063027995</v>
       </c>
       <c r="Y20" t="n">
-        <v>2769.519398860791</v>
+        <v>2549.191389976085</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C21" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D21" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E21" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F21" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G21" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H21" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I21" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>2615.69568868064</v>
+        <v>111.2881081840224</v>
       </c>
       <c r="K21" t="n">
-        <v>2615.69568868064</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L21" t="n">
-        <v>3115.250713290679</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M21" t="n">
-        <v>3958.227793985246</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N21" t="n">
-        <v>3958.227793985246</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O21" t="n">
-        <v>4662.18488453114</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P21" t="n">
-        <v>4662.18488453114</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="R21" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S21" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T21" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U21" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V21" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W21" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X21" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y21" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="22">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>827.6148396568026</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C22" t="n">
-        <v>827.6148396568026</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D22" t="n">
-        <v>827.6148396568026</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E22" t="n">
-        <v>666.7040245251221</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H22" t="n">
         <v>209.5897435862967</v>
@@ -5934,28 +5934,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>1622.642594311473</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T22" t="n">
-        <v>1622.642594311473</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="U22" t="n">
-        <v>1339.844446857597</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="V22" t="n">
-        <v>1065.958701797119</v>
+        <v>1077.092362806305</v>
       </c>
       <c r="W22" t="n">
-        <v>1065.958701797119</v>
+        <v>798.0226983151792</v>
       </c>
       <c r="X22" t="n">
-        <v>827.6148396568026</v>
+        <v>559.6788361748627</v>
       </c>
       <c r="Y22" t="n">
-        <v>827.6148396568026</v>
+        <v>334.9431375636274</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2102.237727455811</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C23" t="n">
-        <v>1692.113136769081</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D23" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E23" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F23" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G23" t="n">
-        <v>93.2436976906228</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H23" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I23" t="n">
         <v>93.2436976906228</v>
@@ -6016,25 +6016,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S23" t="n">
-        <v>4526.90380932524</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T23" t="n">
-        <v>4304.697325272099</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U23" t="n">
-        <v>4047.636833531609</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V23" t="n">
-        <v>3697.79927886809</v>
+        <v>4144.752941388363</v>
       </c>
       <c r="W23" t="n">
-        <v>3314.038978003258</v>
+        <v>3760.992640523532</v>
       </c>
       <c r="X23" t="n">
-        <v>2913.395580172211</v>
+        <v>3360.349242692484</v>
       </c>
       <c r="Y23" t="n">
-        <v>2512.458907120301</v>
+        <v>2959.412569640574</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J24" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K24" t="n">
-        <v>93.2436976906228</v>
+        <v>567.0943644493211</v>
       </c>
       <c r="L24" t="n">
-        <v>93.2436976906228</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="M24" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N24" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O24" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P24" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q24" t="n">
         <v>2139.732893541123</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>975.5020640418711</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="C25" t="n">
-        <v>975.5020640418711</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="D25" t="n">
-        <v>816.0074193647811</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="E25" t="n">
-        <v>655.0966042331006</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="F25" t="n">
-        <v>490.4654783436919</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="G25" t="n">
-        <v>323.2150872692353</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="H25" t="n">
-        <v>173.6076320746919</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I25" t="n">
         <v>93.2436976906228</v>
@@ -6174,25 +6174,25 @@
         <v>1537.369875986873</v>
       </c>
       <c r="S25" t="n">
-        <v>1537.369875986873</v>
+        <v>1350.978107866783</v>
       </c>
       <c r="T25" t="n">
-        <v>1537.369875986873</v>
+        <v>1111.429368843485</v>
       </c>
       <c r="U25" t="n">
-        <v>1254.571728532997</v>
+        <v>828.6312213896092</v>
       </c>
       <c r="V25" t="n">
-        <v>1254.571728532997</v>
+        <v>554.7454763291312</v>
       </c>
       <c r="W25" t="n">
-        <v>975.5020640418711</v>
+        <v>447.9336057266133</v>
       </c>
       <c r="X25" t="n">
-        <v>975.5020640418711</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="Y25" t="n">
-        <v>975.5020640418711</v>
+        <v>209.5897435862967</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2102.237727455811</v>
+        <v>2452.075282119331</v>
       </c>
       <c r="C26" t="n">
-        <v>1692.113136769081</v>
+        <v>2041.950691432601</v>
       </c>
       <c r="D26" t="n">
-        <v>1287.649206862142</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E26" t="n">
-        <v>873.3089913790386</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F26" t="n">
-        <v>452.2785793327262</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G26" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H26" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I26" t="n">
         <v>93.2436976906228</v>
@@ -6262,16 +6262,16 @@
         <v>4047.636833531609</v>
       </c>
       <c r="V26" t="n">
-        <v>3697.79927886809</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="W26" t="n">
-        <v>3314.038978003258</v>
+        <v>3663.876532666778</v>
       </c>
       <c r="X26" t="n">
-        <v>2913.395580172211</v>
+        <v>3263.23313483573</v>
       </c>
       <c r="Y26" t="n">
-        <v>2512.458907120301</v>
+        <v>2862.29646178382</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K27" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L27" t="n">
-        <v>93.2436976906228</v>
+        <v>947.1447271725442</v>
       </c>
       <c r="M27" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N27" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O27" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P27" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q27" t="n">
         <v>2139.732893541123</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D28" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E28" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F28" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G28" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H28" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I28" t="n">
         <v>93.2436976906228</v>
@@ -6414,22 +6414,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T28" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U28" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V28" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W28" t="n">
-        <v>1502.768798021982</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X28" t="n">
-        <v>1264.424935881666</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y28" t="n">
-        <v>1039.68923727043</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2549.191389976085</v>
+        <v>2140.463105868917</v>
       </c>
       <c r="C29" t="n">
-        <v>2139.066799289355</v>
+        <v>1730.338515182187</v>
       </c>
       <c r="D29" t="n">
-        <v>1734.602869382415</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E29" t="n">
-        <v>1320.262653899312</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F29" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G29" t="n">
         <v>490.5039577458317</v>
@@ -6490,25 +6490,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S29" t="n">
-        <v>4662.18488453114</v>
+        <v>4565.129187738346</v>
       </c>
       <c r="T29" t="n">
-        <v>4662.18488453114</v>
+        <v>4342.922703685204</v>
       </c>
       <c r="U29" t="n">
-        <v>4494.590496051882</v>
+        <v>4085.862211944715</v>
       </c>
       <c r="V29" t="n">
-        <v>4144.752941388363</v>
+        <v>3736.024657281195</v>
       </c>
       <c r="W29" t="n">
-        <v>3760.992640523532</v>
+        <v>3352.264356416364</v>
       </c>
       <c r="X29" t="n">
-        <v>3360.349242692484</v>
+        <v>2951.620958585316</v>
       </c>
       <c r="Y29" t="n">
-        <v>2959.412569640574</v>
+        <v>2550.684285533406</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K30" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L30" t="n">
-        <v>93.2436976906228</v>
+        <v>385.2054556740427</v>
       </c>
       <c r="M30" t="n">
-        <v>936.2207783851894</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="N30" t="n">
-        <v>1809.878870496807</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O30" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P30" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q30" t="n">
         <v>2139.732893541123</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1182.57754799176</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C31" t="n">
-        <v>1011.484175553476</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D31" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E31" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F31" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G31" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H31" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I31" t="n">
         <v>93.2436976906228</v>
@@ -6651,22 +6651,22 @@
         <v>1622.642594311473</v>
       </c>
       <c r="T31" t="n">
-        <v>1622.642594311473</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U31" t="n">
-        <v>1622.642594311473</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V31" t="n">
-        <v>1622.642594311473</v>
+        <v>826.4099627738212</v>
       </c>
       <c r="W31" t="n">
-        <v>1622.642594311473</v>
+        <v>547.3402982826956</v>
       </c>
       <c r="X31" t="n">
-        <v>1595.012952997039</v>
+        <v>308.996436142379</v>
       </c>
       <c r="Y31" t="n">
-        <v>1370.277254385804</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2459.725286714852</v>
+        <v>2462.839627293158</v>
       </c>
       <c r="C32" t="n">
-        <v>2049.600696028122</v>
+        <v>2052.715036606428</v>
       </c>
       <c r="D32" t="n">
-        <v>1645.136766121183</v>
+        <v>1648.251106699488</v>
       </c>
       <c r="E32" t="n">
-        <v>1230.796550638079</v>
+        <v>1233.910891216385</v>
       </c>
       <c r="F32" t="n">
-        <v>809.7661385917668</v>
+        <v>812.8804791700727</v>
       </c>
       <c r="G32" t="n">
-        <v>401.0378544845989</v>
+        <v>404.1521950629048</v>
       </c>
       <c r="H32" t="n">
         <v>93.2436976906228</v>
@@ -6736,16 +6736,16 @@
         <v>4405.12439279065</v>
       </c>
       <c r="V32" t="n">
-        <v>4055.286838127131</v>
+        <v>4058.401178705436</v>
       </c>
       <c r="W32" t="n">
-        <v>3671.526537262299</v>
+        <v>3674.640877840605</v>
       </c>
       <c r="X32" t="n">
-        <v>3270.883139431251</v>
+        <v>3273.997480009557</v>
       </c>
       <c r="Y32" t="n">
-        <v>2869.946466379341</v>
+        <v>2873.060806957647</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="L33" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="M33" t="n">
-        <v>562.1177108836107</v>
+        <v>1129.033635947823</v>
       </c>
       <c r="N33" t="n">
-        <v>1435.775802995229</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="O33" t="n">
-        <v>2139.732893541123</v>
+        <v>1228.182536368609</v>
       </c>
       <c r="P33" t="n">
-        <v>2139.732893541123</v>
+        <v>1789.888428857139</v>
       </c>
       <c r="Q33" t="n">
         <v>2139.732893541123</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3891.531821096053</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="C34" t="n">
-        <v>3891.531821096053</v>
+        <v>850.5733604217953</v>
       </c>
       <c r="D34" t="n">
-        <v>3891.531821096053</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="E34" t="n">
-        <v>3730.621005964372</v>
+        <v>691.0787157447054</v>
       </c>
       <c r="F34" t="n">
-        <v>3565.989880074963</v>
+        <v>526.4475898552967</v>
       </c>
       <c r="G34" t="n">
-        <v>3398.739489000507</v>
+        <v>359.19719878084</v>
       </c>
       <c r="H34" t="n">
-        <v>3249.132033805963</v>
+        <v>209.5897435862967</v>
       </c>
       <c r="I34" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J34" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K34" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L34" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M34" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N34" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O34" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P34" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q34" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R34" t="n">
-        <v>4576.912166206539</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="S34" t="n">
-        <v>4390.520398086449</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="T34" t="n">
-        <v>4150.971659063151</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="U34" t="n">
-        <v>3891.531821096053</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="V34" t="n">
-        <v>3891.531821096053</v>
+        <v>1537.369875986873</v>
       </c>
       <c r="W34" t="n">
-        <v>3891.531821096053</v>
+        <v>1276.616928956156</v>
       </c>
       <c r="X34" t="n">
-        <v>3891.531821096053</v>
+        <v>1038.27306681584</v>
       </c>
       <c r="Y34" t="n">
-        <v>3891.531821096053</v>
+        <v>1038.27306681584</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2462.839627293158</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C35" t="n">
-        <v>2052.715036606428</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D35" t="n">
-        <v>1648.251106699488</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E35" t="n">
-        <v>1233.910891216385</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F35" t="n">
-        <v>812.8804791700727</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G35" t="n">
-        <v>404.1521950629048</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H35" t="n">
-        <v>93.2436976906228</v>
+        <v>179.5954603735497</v>
       </c>
       <c r="I35" t="n">
         <v>93.2436976906228</v>
@@ -6964,25 +6964,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S35" t="n">
-        <v>4662.18488453114</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T35" t="n">
-        <v>4662.18488453114</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U35" t="n">
-        <v>4408.238733368956</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V35" t="n">
-        <v>4058.401178705436</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W35" t="n">
-        <v>3674.640877840605</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X35" t="n">
-        <v>3273.997480009557</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y35" t="n">
-        <v>2873.060806957647</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J36" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K36" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L36" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M36" t="n">
-        <v>936.2207783851894</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="N36" t="n">
-        <v>1809.878870496807</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="O36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="P36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q36" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R36" t="n">
         <v>2139.732893541123</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E37" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F37" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G37" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H37" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I37" t="n">
         <v>93.2436976906228</v>
@@ -7119,28 +7119,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R37" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S37" t="n">
-        <v>1350.978107866783</v>
+        <v>1545.439515804519</v>
       </c>
       <c r="T37" t="n">
-        <v>1350.978107866783</v>
+        <v>1305.890776781221</v>
       </c>
       <c r="U37" t="n">
-        <v>1068.179960412907</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="V37" t="n">
-        <v>1068.179960412907</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W37" t="n">
-        <v>1068.179960412907</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X37" t="n">
-        <v>1068.179960412907</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y37" t="n">
-        <v>878.7784221387498</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2549.191389976085</v>
+        <v>2237.518802661711</v>
       </c>
       <c r="C38" t="n">
         <v>2139.066799289355</v>
@@ -7204,22 +7204,22 @@
         <v>4662.18488453114</v>
       </c>
       <c r="T38" t="n">
-        <v>4662.18488453114</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U38" t="n">
-        <v>4494.590496051882</v>
+        <v>4182.917908737509</v>
       </c>
       <c r="V38" t="n">
-        <v>4144.752941388363</v>
+        <v>3833.080354073989</v>
       </c>
       <c r="W38" t="n">
-        <v>3760.992640523532</v>
+        <v>3449.320053209158</v>
       </c>
       <c r="X38" t="n">
-        <v>3360.349242692484</v>
+        <v>3048.67665537811</v>
       </c>
       <c r="Y38" t="n">
-        <v>2959.412569640574</v>
+        <v>2647.7399823262</v>
       </c>
     </row>
     <row r="39">
@@ -7265,13 +7265,13 @@
         <v>936.2207783851894</v>
       </c>
       <c r="N39" t="n">
-        <v>1789.888428857139</v>
+        <v>1435.775802995229</v>
       </c>
       <c r="O39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="P39" t="n">
-        <v>1789.888428857139</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="Q39" t="n">
         <v>2139.732893541123</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>584.7425299376769</v>
+        <v>452.318488259687</v>
       </c>
       <c r="C40" t="n">
-        <v>413.6491574993933</v>
+        <v>281.2251158214035</v>
       </c>
       <c r="D40" t="n">
-        <v>254.1545128223033</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E40" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F40" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G40" t="n">
         <v>93.2436976906228</v>
@@ -7362,22 +7362,22 @@
         <v>1436.250826191383</v>
       </c>
       <c r="T40" t="n">
-        <v>1436.250826191383</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U40" t="n">
-        <v>1153.452678737507</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V40" t="n">
-        <v>879.5669336770293</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W40" t="n">
-        <v>879.5669336770293</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X40" t="n">
-        <v>879.5669336770293</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.4422363317212</v>
+        <v>640.0181946537314</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1483.336263548569</v>
+        <v>2461.166649056344</v>
       </c>
       <c r="C41" t="n">
-        <v>1073.211672861839</v>
+        <v>2051.042058369614</v>
       </c>
       <c r="D41" t="n">
-        <v>668.7477429548999</v>
+        <v>1646.578128462675</v>
       </c>
       <c r="E41" t="n">
-        <v>254.4075274717966</v>
+        <v>1232.237912979571</v>
       </c>
       <c r="F41" t="n">
-        <v>254.4075274717966</v>
+        <v>811.207500933259</v>
       </c>
       <c r="G41" t="n">
-        <v>254.4075274717966</v>
+        <v>402.4792168260911</v>
       </c>
       <c r="H41" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I41" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J41" t="n">
-        <v>327.9013886950514</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K41" t="n">
-        <v>759.5173518155773</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L41" t="n">
-        <v>1472.108751627815</v>
+        <v>1596.507091842841</v>
       </c>
       <c r="M41" t="n">
-        <v>2248.427342619569</v>
+        <v>2372.825682834595</v>
       </c>
       <c r="N41" t="n">
-        <v>3001.608359258187</v>
+        <v>3126.006699473213</v>
       </c>
       <c r="O41" t="n">
-        <v>3645.239215675292</v>
+        <v>3769.637555890318</v>
       </c>
       <c r="P41" t="n">
-        <v>3645.239215675292</v>
+        <v>4257.374965895166</v>
       </c>
       <c r="Q41" t="n">
-        <v>3645.239215675292</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="R41" t="n">
-        <v>3685.795861364857</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S41" t="n">
-        <v>3685.795861364857</v>
+        <v>4443.254897484558</v>
       </c>
       <c r="T41" t="n">
-        <v>3685.795861364857</v>
+        <v>4221.048413431417</v>
       </c>
       <c r="U41" t="n">
-        <v>3428.735369624367</v>
+        <v>3963.987921690927</v>
       </c>
       <c r="V41" t="n">
-        <v>3078.897814960848</v>
+        <v>3614.150367027407</v>
       </c>
       <c r="W41" t="n">
-        <v>2695.137514096016</v>
+        <v>3230.390066162576</v>
       </c>
       <c r="X41" t="n">
-        <v>2294.494116264969</v>
+        <v>2871.387828720834</v>
       </c>
       <c r="Y41" t="n">
-        <v>1893.557443213059</v>
+        <v>2871.387828720834</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2318.137507400892</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C42" t="n">
-        <v>2184.142436149837</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D42" t="n">
-        <v>2067.24527836923</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E42" t="n">
-        <v>1946.752462361558</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F42" t="n">
-        <v>1837.792582544062</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G42" t="n">
-        <v>1730.802469858401</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H42" t="n">
-        <v>1660.055256894117</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I42" t="n">
-        <v>1639.306665514357</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J42" t="n">
-        <v>1639.306665514357</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K42" t="n">
-        <v>1639.306665514357</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L42" t="n">
-        <v>1639.306665514357</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M42" t="n">
-        <v>2108.180678707345</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N42" t="n">
-        <v>2981.838770818963</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O42" t="n">
-        <v>3685.795861364857</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P42" t="n">
-        <v>3685.795861364857</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q42" t="n">
-        <v>3685.795861364857</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R42" t="n">
-        <v>3685.795861364857</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S42" t="n">
-        <v>3577.805851479166</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T42" t="n">
-        <v>3418.463987666174</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U42" t="n">
-        <v>3221.113176804393</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V42" t="n">
-        <v>3007.401649797427</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W42" t="n">
-        <v>2794.168481533755</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X42" t="n">
-        <v>2617.842499672648</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.440540036478</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="C43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="D43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="E43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="F43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="G43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J43" t="n">
-        <v>2170.479514149218</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K43" t="n">
-        <v>2325.031841871456</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L43" t="n">
-        <v>2584.928942151516</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M43" t="n">
-        <v>2874.19299859201</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N43" t="n">
-        <v>3155.03178098626</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O43" t="n">
-        <v>3414.592391312734</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P43" t="n">
-        <v>3620.267831562346</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q43" t="n">
-        <v>3685.795861364857</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R43" t="n">
-        <v>3685.795861364857</v>
+        <v>1591.608645742993</v>
       </c>
       <c r="S43" t="n">
-        <v>3685.795861364857</v>
+        <v>1405.216877622903</v>
       </c>
       <c r="T43" t="n">
-        <v>3455.230082501039</v>
+        <v>1165.668138599605</v>
       </c>
       <c r="U43" t="n">
-        <v>3172.431935047163</v>
+        <v>882.8699911457295</v>
       </c>
       <c r="V43" t="n">
-        <v>2898.546189986685</v>
+        <v>608.9842460852515</v>
       </c>
       <c r="W43" t="n">
-        <v>2619.47652549556</v>
+        <v>329.9145815941258</v>
       </c>
       <c r="X43" t="n">
-        <v>2381.132663355243</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="Y43" t="n">
-        <v>2156.396964744008</v>
+        <v>91.57071945380915</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1694.292981983343</v>
+        <v>2547.518411739271</v>
       </c>
       <c r="C44" t="n">
-        <v>1284.168391296613</v>
+        <v>2137.393821052541</v>
       </c>
       <c r="D44" t="n">
-        <v>879.7044613896738</v>
+        <v>1732.929891145602</v>
       </c>
       <c r="E44" t="n">
-        <v>879.7044613896738</v>
+        <v>1318.589675662498</v>
       </c>
       <c r="F44" t="n">
-        <v>879.7044613896738</v>
+        <v>897.5592636161858</v>
       </c>
       <c r="G44" t="n">
-        <v>470.976177282506</v>
+        <v>488.830979509018</v>
       </c>
       <c r="H44" t="n">
-        <v>160.067679910224</v>
+        <v>177.922482136736</v>
       </c>
       <c r="I44" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J44" t="n">
-        <v>73.71591722729714</v>
+        <v>345.7561909215634</v>
       </c>
       <c r="K44" t="n">
-        <v>73.71591722729714</v>
+        <v>883.9156920306029</v>
       </c>
       <c r="L44" t="n">
-        <v>662.3476926029365</v>
+        <v>1514.531158238972</v>
       </c>
       <c r="M44" t="n">
-        <v>1438.66628359469</v>
+        <v>2290.849749230726</v>
       </c>
       <c r="N44" t="n">
-        <v>2191.847300233308</v>
+        <v>3044.030765869344</v>
       </c>
       <c r="O44" t="n">
-        <v>2835.478156650413</v>
+        <v>3687.661622286449</v>
       </c>
       <c r="P44" t="n">
-        <v>3364.634854569565</v>
+        <v>4216.818320205601</v>
       </c>
       <c r="Q44" t="n">
-        <v>3685.795861364857</v>
+        <v>4537.979327000892</v>
       </c>
       <c r="R44" t="n">
-        <v>3685.795861364857</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="S44" t="n">
-        <v>3685.795861364857</v>
+        <v>4578.535972690457</v>
       </c>
       <c r="T44" t="n">
-        <v>3496.109181968583</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="U44" t="n">
-        <v>3239.048690228093</v>
+        <v>4356.329488637316</v>
       </c>
       <c r="V44" t="n">
-        <v>2889.211135564574</v>
+        <v>4006.491933973797</v>
       </c>
       <c r="W44" t="n">
-        <v>2505.450834699742</v>
+        <v>3622.731633108965</v>
       </c>
       <c r="X44" t="n">
-        <v>2505.450834699742</v>
+        <v>3222.088235277918</v>
       </c>
       <c r="Y44" t="n">
-        <v>2104.514161647832</v>
+        <v>2821.151562226008</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>752.5467591138315</v>
+        <v>770.4015613403435</v>
       </c>
       <c r="C45" t="n">
-        <v>618.5516878627773</v>
+        <v>636.4064900892893</v>
       </c>
       <c r="D45" t="n">
-        <v>501.6545300821697</v>
+        <v>519.5093323086817</v>
       </c>
       <c r="E45" t="n">
-        <v>381.1617140744977</v>
+        <v>399.0165163010097</v>
       </c>
       <c r="F45" t="n">
-        <v>272.2018342570022</v>
+        <v>290.0566364835142</v>
       </c>
       <c r="G45" t="n">
-        <v>165.2117215713409</v>
+        <v>183.0665237978529</v>
       </c>
       <c r="H45" t="n">
-        <v>94.46450860705697</v>
+        <v>112.319310833569</v>
       </c>
       <c r="I45" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J45" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="K45" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="L45" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="M45" t="n">
-        <v>916.6929979218638</v>
+        <v>934.5478001483758</v>
       </c>
       <c r="N45" t="n">
-        <v>1790.351090033482</v>
+        <v>1434.102824758415</v>
       </c>
       <c r="O45" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="P45" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="Q45" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="R45" t="n">
-        <v>2120.205113077797</v>
+        <v>2138.059915304309</v>
       </c>
       <c r="S45" t="n">
-        <v>2012.215103192106</v>
+        <v>2030.069905418618</v>
       </c>
       <c r="T45" t="n">
-        <v>1852.873239379114</v>
+        <v>1870.728041605626</v>
       </c>
       <c r="U45" t="n">
-        <v>1655.522428517333</v>
+        <v>1673.377230743845</v>
       </c>
       <c r="V45" t="n">
-        <v>1441.810901510367</v>
+        <v>1459.665703736879</v>
       </c>
       <c r="W45" t="n">
-        <v>1228.577733246696</v>
+        <v>1246.432535473207</v>
       </c>
       <c r="X45" t="n">
-        <v>1052.251751385588</v>
+        <v>1070.1065536121</v>
       </c>
       <c r="Y45" t="n">
-        <v>892.8497917494182</v>
+        <v>910.7045939759302</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>897.0962664382164</v>
+        <v>750.3199427753198</v>
       </c>
       <c r="C46" t="n">
-        <v>726.0028939999329</v>
+        <v>579.2265703370363</v>
       </c>
       <c r="D46" t="n">
-        <v>566.508249322843</v>
+        <v>419.7319256599463</v>
       </c>
       <c r="E46" t="n">
-        <v>405.5974341911624</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="F46" t="n">
-        <v>240.9663083017537</v>
+        <v>258.8211105282658</v>
       </c>
       <c r="G46" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="H46" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="I46" t="n">
-        <v>73.71591722729714</v>
+        <v>91.57071945380915</v>
       </c>
       <c r="J46" t="n">
-        <v>87.79846663250765</v>
+        <v>105.6532688590197</v>
       </c>
       <c r="K46" t="n">
-        <v>242.3507943547456</v>
+        <v>260.2055965812576</v>
       </c>
       <c r="L46" t="n">
-        <v>502.2478946348062</v>
+        <v>520.1026968613182</v>
       </c>
       <c r="M46" t="n">
-        <v>791.5119510752995</v>
+        <v>809.3667533018115</v>
       </c>
       <c r="N46" t="n">
-        <v>1072.35073346955</v>
+        <v>1090.205535696062</v>
       </c>
       <c r="O46" t="n">
-        <v>1331.911343796024</v>
+        <v>1349.766146022536</v>
       </c>
       <c r="P46" t="n">
-        <v>1537.586784045636</v>
+        <v>1555.441586272148</v>
       </c>
       <c r="Q46" t="n">
-        <v>1603.114813848147</v>
+        <v>1620.969616074659</v>
       </c>
       <c r="R46" t="n">
-        <v>1603.114813848147</v>
+        <v>1535.696897750059</v>
       </c>
       <c r="S46" t="n">
-        <v>1603.114813848147</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="T46" t="n">
-        <v>1603.114813848147</v>
+        <v>1349.305129629969</v>
       </c>
       <c r="U46" t="n">
-        <v>1603.114813848147</v>
+        <v>1066.506982176093</v>
       </c>
       <c r="V46" t="n">
-        <v>1603.114813848147</v>
+        <v>1066.506982176093</v>
       </c>
       <c r="W46" t="n">
-        <v>1547.875533583813</v>
+        <v>1066.506982176093</v>
       </c>
       <c r="X46" t="n">
-        <v>1309.531671443496</v>
+        <v>1066.506982176093</v>
       </c>
       <c r="Y46" t="n">
-        <v>1084.795972832261</v>
+        <v>841.771283564858</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>200.7070526279988</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L2" t="n">
-        <v>815.2746908024792</v>
+        <v>596.4554908421626</v>
       </c>
       <c r="M2" t="n">
-        <v>877.4504173780091</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>743.321953824879</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,31 +8057,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>57.56428373841742</v>
+        <v>502.6011371814506</v>
       </c>
       <c r="N3" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>768.8192472281761</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
-        <v>596.5640636445448</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8215,25 +8215,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>188.6765867334248</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>815.2746908024792</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>853.701196452193</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>743.321953824879</v>
+        <v>269.754811036119</v>
       </c>
       <c r="P5" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>414.4388617681339</v>
@@ -8294,19 +8294,19 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>723.8803540323523</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>909.0562844399999</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N6" t="n">
-        <v>601.0963663600584</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K8" t="n">
         <v>632.7318453389136</v>
@@ -8467,13 +8467,13 @@
         <v>853.701196452193</v>
       </c>
       <c r="O8" t="n">
-        <v>93.18977562578313</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P8" t="n">
         <v>628.1510783507341</v>
       </c>
       <c r="Q8" t="n">
-        <v>98.04453218646462</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
         <v>128.2784515920617</v>
@@ -8537,19 +8537,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N9" t="n">
-        <v>885.2086776792871</v>
+        <v>935.6763147186165</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>390.9373608629449</v>
       </c>
       <c r="P9" t="n">
-        <v>621.6393243851574</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
         <v>56.69261850483872</v>
@@ -8689,7 +8689,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
         <v>632.7318453389136</v>
@@ -8707,10 +8707,10 @@
         <v>743.321953824879</v>
       </c>
       <c r="P11" t="n">
-        <v>283.7489381988693</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>372.6011972082306</v>
       </c>
       <c r="R11" t="n">
         <v>87.31214281472352</v>
@@ -8777,22 +8777,22 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507824</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>247.2726194786469</v>
       </c>
       <c r="K14" t="n">
         <v>632.7318453389136</v>
@@ -8938,16 +8938,16 @@
         <v>877.4504173780091</v>
       </c>
       <c r="N14" t="n">
-        <v>746.08146111026</v>
+        <v>853.701196452193</v>
       </c>
       <c r="O14" t="n">
         <v>743.321953824879</v>
       </c>
       <c r="P14" t="n">
-        <v>93.64936328088416</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q14" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
         <v>128.2784515920617</v>
@@ -9011,25 +9011,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L15" t="n">
-        <v>529.7246381472005</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>458.6703921507824</v>
       </c>
       <c r="O15" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,28 +9242,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>723.8803540323523</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>605.6544519663084</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
         <v>59.00019910540541</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>330.0765928158882</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
         <v>632.7318453389136</v>
@@ -9479,28 +9479,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>69.59591606606023</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>560.7155587704847</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9716,28 +9716,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>339.7023577301357</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O24" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>59.00019910540541</v>
@@ -9953,28 +9953,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>341.4408586839378</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
         <v>59.00019910540541</v>
@@ -10190,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>156.2649282762901</v>
       </c>
       <c r="M30" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O30" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10427,7 +10427,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>55.82578278461539</v>
@@ -10436,19 +10436,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M33" t="n">
-        <v>531.1743980747688</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>153.3437978591911</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
         <v>59.00019910540541</v>
@@ -10664,22 +10664,22 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>771.9303349915991</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O36" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
         <v>54.25963500280375</v>
@@ -10688,7 +10688,7 @@
         <v>56.69261850483872</v>
       </c>
       <c r="R36" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920618</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10913,16 +10913,16 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N39" t="n">
-        <v>915.4839494260226</v>
+        <v>557.7944283533855</v>
       </c>
       <c r="O39" t="n">
-        <v>57.751479</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P39" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R39" t="n">
         <v>59.00019910540541</v>
@@ -11062,7 +11062,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>525.1121099969806</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
         <v>815.2746908024792</v>
@@ -11077,13 +11077,13 @@
         <v>743.321953824879</v>
       </c>
       <c r="P41" t="n">
-        <v>93.64936328088416</v>
+        <v>586.3134137908314</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11147,10 +11147,10 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>531.174398074769</v>
+        <v>909.0562844399999</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533852</v>
       </c>
       <c r="O42" t="n">
         <v>768.8192472281761</v>
@@ -11296,13 +11296,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>89.13638967321712</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L44" t="n">
-        <v>690.062948947329</v>
+        <v>732.4707174652381</v>
       </c>
       <c r="M44" t="n">
         <v>877.4504173780091</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11387,10 +11387,10 @@
         <v>909.0562844399999</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>557.7944283533852</v>
       </c>
       <c r="O45" t="n">
-        <v>390.9373608629449</v>
+        <v>768.8192472281761</v>
       </c>
       <c r="P45" t="n">
         <v>54.25963500280375</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23308,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>15.73733492018815</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>169.7276164964508</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,22 +23469,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>8.893130557884518</v>
       </c>
     </row>
     <row r="14">
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>269.1504133398158</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>82.36152368684631</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23658,7 +23658,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>104.4980066083962</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23746,10 +23746,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -23785,10 +23785,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>137.0114616263634</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>102.9647224806629</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -23904,7 +23904,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>220.9305176767165</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>102.5059940158881</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>36.36515802722576</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>61.72284929254656</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
@@ -24135,16 +24135,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>24.13094430738744</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>49.19646844041381</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>308.5558614412299</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I25" t="n">
-        <v>35.62229039648869</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>170.5352159497216</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>222.4883416251229</v>
@@ -24448,7 +24448,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>96.14494677818607</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>356.995880838973</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
         <v>169.3824387139007</v>
@@ -24609,19 +24609,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24654,22 +24654,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>157.6039095196184</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="29">
@@ -24694,7 +24694,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>37.84312462897394</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -24837,28 +24837,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,22 +24891,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>208.6070786176239</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.893130557884348</v>
       </c>
     </row>
     <row r="32">
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>3.08319717252283</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24976,7 +24976,7 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>3.083197172522887</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25074,16 +25074,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U34" t="n">
-        <v>23.1247263919102</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>18.1335502858052</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>222.4883416251229</v>
@@ -25153,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>36.36515802722619</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25174,7 +25174,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,13 +25204,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>3.083197172522915</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -25323,16 +25323,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.096802717004</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>34.98081873370717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25393,7 +25393,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>308.5558614412305</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25444,10 +25444,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>88.57144222861982</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25554,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>137.3759814445582</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>116.434891253268</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25639,13 +25639,13 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>128.9147182565048</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>41.22474878541226</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>55.35263051300471</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>8.893130557885371</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>135.2221488859753</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25873,10 +25873,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25918,10 +25918,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>32.19460661029848</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>95.28588194846111</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -26034,7 +26034,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>221.5920803845231</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>579476.7679552571</v>
+        <v>658762.8991382383</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>579476.7679552571</v>
+        <v>658762.8991382383</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307155</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307157</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307156</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307156</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307156</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666191.9353307154</v>
+        <v>666191.9353307156</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307154</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666191.9353307155</v>
+        <v>666191.9353307153</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>579476.767955257</v>
+        <v>658762.8991382383</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>579476.7679552571</v>
+        <v>658762.8991382382</v>
       </c>
     </row>
   </sheetData>
@@ -26316,28 +26316,28 @@
         <v>390917.7432778968</v>
       </c>
       <c r="C2" t="n">
+        <v>390917.7432778967</v>
+      </c>
+      <c r="D2" t="n">
         <v>390917.743277897</v>
       </c>
-      <c r="D2" t="n">
-        <v>390917.7432778967</v>
-      </c>
       <c r="E2" t="n">
-        <v>302335.7050201343</v>
+        <v>343702.3821590812</v>
       </c>
       <c r="F2" t="n">
-        <v>302335.7050201343</v>
+        <v>343702.3821590812</v>
       </c>
       <c r="G2" t="n">
+        <v>347578.4010421127</v>
+      </c>
+      <c r="H2" t="n">
+        <v>347578.4010421126</v>
+      </c>
+      <c r="I2" t="n">
         <v>347578.4010421128</v>
       </c>
-      <c r="H2" t="n">
+      <c r="J2" t="n">
         <v>347578.4010421128</v>
-      </c>
-      <c r="I2" t="n">
-        <v>347578.4010421129</v>
-      </c>
-      <c r="J2" t="n">
-        <v>347578.401042113</v>
       </c>
       <c r="K2" t="n">
         <v>347578.4010421127</v>
@@ -26349,13 +26349,13 @@
         <v>347578.4010421128</v>
       </c>
       <c r="N2" t="n">
-        <v>347578.4010421128</v>
+        <v>347578.4010421127</v>
       </c>
       <c r="O2" t="n">
-        <v>302335.7050201343</v>
+        <v>343702.3821590811</v>
       </c>
       <c r="P2" t="n">
-        <v>302335.7050201343</v>
+        <v>343702.3821590812</v>
       </c>
     </row>
     <row r="3">
@@ -26365,13 +26365,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>308798.7416120438</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>193389.0504351682</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>66903.39635363265</v>
+        <v>5731.72800046337</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>241091.5930877367</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>157566.97087753</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>86139.28630219247</v>
+        <v>156061.4241878747</v>
       </c>
       <c r="C4" t="n">
-        <v>86139.28630219249</v>
+        <v>156061.4241878747</v>
       </c>
       <c r="D4" t="n">
-        <v>86139.28630219247</v>
+        <v>47065.31292574303</v>
       </c>
       <c r="E4" t="n">
-        <v>1873.101428439413</v>
+        <v>2150.356946272928</v>
       </c>
       <c r="F4" t="n">
-        <v>1873.101428439413</v>
+        <v>2150.356946272928</v>
       </c>
       <c r="G4" t="n">
         <v>2176.335528476613</v>
@@ -26456,10 +26456,10 @@
         <v>2176.335528476613</v>
       </c>
       <c r="O4" t="n">
-        <v>1873.101428439413</v>
+        <v>2150.356946272928</v>
       </c>
       <c r="P4" t="n">
-        <v>1873.101428439413</v>
+        <v>2150.356946272928</v>
       </c>
     </row>
     <row r="5">
@@ -26469,19 +26469,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>89651.69709274583</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>89651.69709274583</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>89651.69709274583</v>
+        <v>103221.3467848949</v>
       </c>
       <c r="E5" t="n">
-        <v>56024.09709274583</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="F5" t="n">
-        <v>56024.09709274583</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="G5" t="n">
         <v>70865.21024487332</v>
@@ -26508,10 +26508,10 @@
         <v>70865.21024487332</v>
       </c>
       <c r="O5" t="n">
-        <v>56024.09709274583</v>
+        <v>69593.74678489495</v>
       </c>
       <c r="P5" t="n">
-        <v>56024.09709274583</v>
+        <v>69593.74678489495</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-93671.98172908521</v>
+        <v>-5468.255881589554</v>
       </c>
       <c r="C6" t="n">
-        <v>215126.7598829587</v>
+        <v>169487.2540115244</v>
       </c>
       <c r="D6" t="n">
-        <v>215126.7598829584</v>
+        <v>47242.03313209082</v>
       </c>
       <c r="E6" t="n">
-        <v>244438.506498949</v>
+        <v>269990.9717146293</v>
       </c>
       <c r="F6" t="n">
-        <v>244438.5064989491</v>
+        <v>269990.9717146293</v>
       </c>
       <c r="G6" t="n">
-        <v>207633.4589151303</v>
+        <v>266999.3213418084</v>
       </c>
       <c r="H6" t="n">
-        <v>274536.8552687629</v>
+        <v>272731.0493422717</v>
       </c>
       <c r="I6" t="n">
-        <v>274536.855268763</v>
+        <v>272731.0493422719</v>
       </c>
       <c r="J6" t="n">
-        <v>33445.2621810264</v>
+        <v>136136.2485363769</v>
       </c>
       <c r="K6" t="n">
-        <v>274536.8552687628</v>
+        <v>272731.0493422718</v>
       </c>
       <c r="L6" t="n">
-        <v>274536.8552687628</v>
+        <v>115164.0784647418</v>
       </c>
       <c r="M6" t="n">
-        <v>274536.8552687629</v>
+        <v>272731.0493422719</v>
       </c>
       <c r="N6" t="n">
-        <v>274536.8552687629</v>
+        <v>272731.0493422718</v>
       </c>
       <c r="O6" t="n">
-        <v>244438.506498949</v>
+        <v>269990.9717146292</v>
       </c>
       <c r="P6" t="n">
-        <v>244438.5064989491</v>
+        <v>269990.9717146293</v>
       </c>
     </row>
   </sheetData>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>921.4489653412143</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>921.4489653412143</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>921.4489653412143</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="E4" t="n">
-        <v>921.4489653412143</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="F4" t="n">
-        <v>921.4489653412143</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="G4" t="n">
         <v>1165.546221132785</v>
@@ -26828,10 +26828,10 @@
         <v>1165.546221132785</v>
       </c>
       <c r="O4" t="n">
-        <v>921.4489653412143</v>
+        <v>1144.633993172614</v>
       </c>
       <c r="P4" t="n">
-        <v>921.4489653412143</v>
+        <v>1144.633993172614</v>
       </c>
     </row>
   </sheetData>
@@ -27011,13 +27011,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>921.4489653412143</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>244.0972557915707</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,13 +27035,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>921.4489653412143</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025886</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27257,13 +27257,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>921.4489653412143</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>622.5704228025888</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>244.0972557915707</v>
+        <v>20.91222796017064</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,22 +27384,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>215.6612516765057</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>305.1273395948641</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>396.9273063213908</v>
@@ -27545,13 +27545,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>148.1113806425979</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>63.54921168817179</v>
+        <v>258.270696578976</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>11.48287933845643</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>373.4329403396689</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27636,7 +27636,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
         <v>396.9273063213908</v>
@@ -27773,25 +27773,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>62.66416892819718</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,16 +27830,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,16 +27852,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>193.1397923182603</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,10 +27870,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>130.352642708244</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,19 +28016,19 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,19 +28067,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>185.2171579441301</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>208.6070786176239</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>111.5706629547817</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L2" t="n">
-        <v>719.7892927396343</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="M2" t="n">
-        <v>784.1601929209636</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>650.1321781990958</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,31 +34777,31 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>711.0677682281761</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P3" t="n">
-        <v>542.3044286417411</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34935,25 +34935,25 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>115.3529954001169</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>719.7892927396343</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>760.7889056955737</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>650.1321781990958</v>
+        <v>176.5650354103359</v>
       </c>
       <c r="P5" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
         <v>324.4050573689818</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>667.7658302215033</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N6" t="n">
-        <v>547.9029729663084</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -35172,7 +35172,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K8" t="n">
         <v>543.5954556656965</v>
@@ -35187,13 +35187,13 @@
         <v>760.7889056955737</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>650.1321781990958</v>
       </c>
       <c r="P8" t="n">
         <v>534.50171506985</v>
       </c>
       <c r="Q8" t="n">
-        <v>8.010727787312575</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
         <v>40.9663087773382</v>
@@ -35257,19 +35257,19 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N9" t="n">
-        <v>832.0152842855372</v>
+        <v>882.4829213248665</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>333.1858818629449</v>
       </c>
       <c r="P9" t="n">
-        <v>567.3796893823536</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35409,7 +35409,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
         <v>543.5954556656965</v>
@@ -35427,10 +35427,10 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P11" t="n">
-        <v>190.0995749179851</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>282.5673928090785</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35497,22 +35497,22 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570324</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35646,7 +35646,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>173.9490281453389</v>
       </c>
       <c r="K14" t="n">
         <v>543.5954556656965</v>
@@ -35658,16 +35658,16 @@
         <v>784.1601929209636</v>
       </c>
       <c r="N14" t="n">
-        <v>653.1691703536407</v>
+        <v>760.7889056955737</v>
       </c>
       <c r="O14" t="n">
         <v>650.1321781990958</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>534.50171506985</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R14" t="n">
         <v>40.9663087773382</v>
@@ -35731,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>405.4769987570324</v>
       </c>
       <c r="O15" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>667.7658302215033</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>547.9029729663084</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>256.7530014825803</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
         <v>543.5954556656965</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>18.22667726606021</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>504.6010349596356</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>283.8765749455203</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M27" t="n">
-        <v>851.4920007015825</v>
+        <v>283.8765749455204</v>
       </c>
       <c r="N27" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>100.1504044654411</v>
       </c>
       <c r="M30" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N30" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37156,19 +37156,19 @@
         <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>473.6101143363514</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N33" t="n">
-        <v>882.4829213248665</v>
+        <v>100.1504044654411</v>
       </c>
       <c r="O33" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M36" t="n">
-        <v>851.4920007015825</v>
+        <v>714.3660512531817</v>
       </c>
       <c r="N36" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37408,7 +37408,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>40.96630877733828</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37633,16 +37633,16 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N39" t="n">
-        <v>862.2905560322727</v>
+        <v>504.6010349596355</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37782,7 +37782,7 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>435.9757203237635</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L41" t="n">
         <v>719.7892927396343</v>
@@ -37797,13 +37797,13 @@
         <v>650.1321781990958</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>492.6640505099473</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37867,10 +37867,10 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>473.6101143363516</v>
+        <v>851.4920007015825</v>
       </c>
       <c r="N42" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596353</v>
       </c>
       <c r="O42" t="n">
         <v>711.0677682281761</v>
@@ -38016,13 +38016,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>543.5954556656965</v>
       </c>
       <c r="L44" t="n">
-        <v>594.5775508844841</v>
+        <v>636.9853194023932</v>
       </c>
       <c r="M44" t="n">
         <v>784.1601929209636</v>
@@ -38040,7 +38040,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38107,10 +38107,10 @@
         <v>851.4920007015825</v>
       </c>
       <c r="N45" t="n">
-        <v>882.4829213248665</v>
+        <v>504.6010349596353</v>
       </c>
       <c r="O45" t="n">
-        <v>333.1858818629449</v>
+        <v>711.0677682281761</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
